--- a/animalchange/databron/dataa.xlsx
+++ b/animalchange/databron/dataa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobbo\OneDrive\Documenten\Data Processing\Homework\Week_7\databron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobbo\OneDrive\Documenten\GitHub\Programmeerproject\animalchange\databron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="CB06A7E2ED938FF8B3D71101C97C7D12BAD4146A" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{831727EF-6F42-4A6C-B2A9-0FBD9894EC9E}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="CB06A7E2ED938FF8B3D71101C97C7D12BAD4146A" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{1EC1E3B8-8787-46DB-BB35-6A4A4F7E7AD0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{CF116155-2BF7-4728-BAFA-D04BDBBB0EA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>2000</t>
   </si>
@@ -116,1042 +116,12 @@
   <si>
     <t>Nederland</t>
   </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>6560</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>163</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>223</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>980</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1537</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>281</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>84</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>129</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>87</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2114</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>679</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>18258</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>320</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>324</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>483</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3204</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>159</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>4907</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>176</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>607</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>222</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>5185</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF212121"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC41A16"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1669</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF222222"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1163,22 +133,12 @@
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF212121"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFC41A16"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
@@ -1217,10 +177,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1540,7 +500,7 @@
   <dimension ref="A1:HS33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3582,452 +2542,452 @@
         <v>19</v>
       </c>
       <c r="C4" s="2">
-        <v>392193</v>
+        <v>2236643</v>
       </c>
       <c r="D4" s="2">
-        <v>383378</v>
+        <v>2101111</v>
       </c>
       <c r="E4" s="2">
-        <v>370872</v>
+        <v>2142797</v>
       </c>
       <c r="F4" s="2">
-        <v>325124</v>
+        <v>1830860</v>
       </c>
       <c r="G4" s="2">
-        <v>346719</v>
+        <v>1944506</v>
       </c>
       <c r="H4" s="2">
-        <v>360473</v>
+        <v>2369675</v>
       </c>
       <c r="I4" s="2">
-        <v>323507</v>
+        <v>2440948</v>
       </c>
       <c r="J4" s="2">
-        <v>387101</v>
+        <v>2925064</v>
       </c>
       <c r="K4" s="2">
-        <v>323044</v>
+        <v>2673833</v>
       </c>
       <c r="L4" s="2">
-        <v>312077</v>
+        <v>3042505</v>
       </c>
       <c r="M4" s="2">
-        <v>298834</v>
+        <v>2599958</v>
       </c>
       <c r="N4" s="2">
-        <v>301806</v>
+        <v>2613631</v>
       </c>
       <c r="O4" s="2">
-        <v>326895</v>
+        <v>2353176</v>
       </c>
       <c r="P4" s="2">
-        <v>311017</v>
+        <v>2210116</v>
       </c>
       <c r="Q4" s="2">
-        <v>320672</v>
+        <v>2229010</v>
       </c>
       <c r="R4" s="2">
-        <v>381133</v>
+        <v>2386066</v>
       </c>
       <c r="S4" s="2">
-        <v>363163</v>
+        <v>2249703</v>
       </c>
       <c r="T4" s="2">
-        <v>5221</v>
+        <v>121026</v>
       </c>
       <c r="U4" s="2">
-        <v>5278</v>
+        <v>108784</v>
       </c>
       <c r="V4" s="2">
-        <v>5173</v>
+        <v>86504</v>
       </c>
       <c r="W4" s="2">
-        <v>5110</v>
+        <v>134441</v>
       </c>
       <c r="X4" s="2">
-        <v>5040</v>
+        <v>109107</v>
       </c>
       <c r="Y4" s="2">
-        <v>3845</v>
+        <v>100184</v>
       </c>
       <c r="Z4" s="2">
-        <v>2010</v>
+        <v>74504</v>
       </c>
       <c r="AA4" s="2">
-        <v>2018</v>
+        <v>79997</v>
       </c>
       <c r="AB4" s="2">
-        <v>1410</v>
+        <v>71730</v>
       </c>
       <c r="AC4" s="2">
-        <v>2680</v>
+        <v>84375</v>
       </c>
       <c r="AD4" s="2">
-        <v>2720</v>
+        <v>75222</v>
       </c>
       <c r="AE4" s="2">
-        <v>3281</v>
+        <v>70411</v>
       </c>
       <c r="AF4" s="2">
-        <v>2907</v>
+        <v>39907</v>
       </c>
       <c r="AG4" s="2">
-        <v>3709</v>
+        <v>22609</v>
       </c>
       <c r="AH4" s="2">
-        <v>2939</v>
+        <v>37241</v>
       </c>
       <c r="AI4" s="2">
-        <v>3929</v>
+        <v>37936</v>
       </c>
       <c r="AJ4" s="2">
-        <v>3829</v>
+        <v>38914</v>
       </c>
       <c r="AK4" s="2">
-        <v>2640</v>
+        <v>37244</v>
       </c>
       <c r="AL4" s="2">
-        <v>2429</v>
+        <v>37349</v>
       </c>
       <c r="AM4" s="2">
-        <v>7828</v>
+        <v>30647</v>
       </c>
       <c r="AN4" s="2">
-        <v>9720</v>
+        <v>32620</v>
       </c>
       <c r="AO4" s="2">
-        <v>17754</v>
+        <v>40602</v>
       </c>
       <c r="AP4" s="2">
-        <v>15499</v>
+        <v>29269</v>
       </c>
       <c r="AQ4" s="2">
-        <v>10275</v>
+        <v>174739</v>
       </c>
       <c r="AR4" s="2">
-        <v>2650</v>
+        <v>36425</v>
       </c>
       <c r="AS4" s="2">
-        <v>2700</v>
+        <v>20135</v>
       </c>
       <c r="AT4" s="2">
-        <v>1964</v>
+        <v>71599</v>
       </c>
       <c r="AU4" s="2">
-        <v>4732</v>
+        <v>43531</v>
       </c>
       <c r="AV4" s="2">
-        <v>2164</v>
+        <v>44054</v>
       </c>
       <c r="AW4" s="2">
-        <v>5863</v>
+        <v>56962</v>
       </c>
       <c r="AX4" s="2">
-        <v>4762</v>
+        <v>46473</v>
       </c>
       <c r="AY4" s="2">
-        <v>5518</v>
+        <v>45400</v>
       </c>
       <c r="AZ4" s="2">
-        <v>6150</v>
+        <v>36345</v>
       </c>
       <c r="BA4" s="2">
-        <v>5700</v>
+        <v>25972</v>
       </c>
       <c r="BB4" s="2">
-        <v>9790</v>
+        <v>22350</v>
       </c>
       <c r="BC4" s="2">
-        <v>8823</v>
+        <v>31652</v>
       </c>
       <c r="BD4" s="2">
-        <v>10479</v>
+        <v>85052</v>
       </c>
       <c r="BE4" s="2">
-        <v>10810</v>
+        <v>67693</v>
       </c>
       <c r="BF4" s="2">
-        <v>8430</v>
+        <v>70175</v>
       </c>
       <c r="BG4" s="2">
-        <v>6949</v>
+        <v>70718</v>
       </c>
       <c r="BH4" s="2">
-        <v>6975</v>
+        <v>85785</v>
       </c>
       <c r="BI4" s="2">
-        <v>9281</v>
+        <v>90311</v>
       </c>
       <c r="BJ4" s="2">
-        <v>11147</v>
+        <v>127046</v>
       </c>
       <c r="BK4" s="2">
-        <v>8871</v>
+        <v>147018</v>
       </c>
       <c r="BL4" s="2">
-        <v>4838</v>
+        <v>122594</v>
       </c>
       <c r="BM4" s="2">
-        <v>75</v>
+        <v>143729</v>
       </c>
       <c r="BN4" s="2">
-        <v>50</v>
+        <v>72300</v>
       </c>
       <c r="BO4" s="2">
-        <v>45</v>
+        <v>51745</v>
       </c>
       <c r="BP4" s="2">
-        <v>75</v>
+        <v>76276</v>
       </c>
       <c r="BQ4" s="2">
-        <v>45</v>
+        <v>54010</v>
       </c>
       <c r="BR4" s="2">
-        <v>0</v>
+        <v>55599</v>
       </c>
       <c r="BS4" s="2">
-        <v>36714</v>
+        <v>98123</v>
       </c>
       <c r="BT4" s="2">
-        <v>36338</v>
+        <v>113423</v>
       </c>
       <c r="BU4" s="2">
-        <v>35889</v>
+        <v>120745</v>
       </c>
       <c r="BV4" s="2">
-        <v>31300</v>
+        <v>142124</v>
       </c>
       <c r="BW4" s="2">
-        <v>30157</v>
+        <v>100569</v>
       </c>
       <c r="BX4" s="2">
-        <v>26347</v>
+        <v>148937</v>
       </c>
       <c r="BY4" s="2">
-        <v>21886</v>
+        <v>128866</v>
       </c>
       <c r="BZ4" s="2">
-        <v>33198</v>
+        <v>295668</v>
       </c>
       <c r="CA4" s="2">
-        <v>28217</v>
+        <v>127396</v>
       </c>
       <c r="CB4" s="2">
-        <v>29906</v>
+        <v>110809</v>
       </c>
       <c r="CC4" s="2">
-        <v>45729</v>
+        <v>133612</v>
       </c>
       <c r="CD4" s="2">
-        <v>46279</v>
+        <v>149506</v>
       </c>
       <c r="CE4" s="2">
-        <v>44512</v>
+        <v>203202</v>
       </c>
       <c r="CF4" s="2">
-        <v>53263</v>
+        <v>223807</v>
       </c>
       <c r="CG4" s="2">
-        <v>71469</v>
+        <v>236803</v>
       </c>
       <c r="CH4" s="2">
-        <v>83057</v>
+        <v>242775</v>
       </c>
       <c r="CI4" s="2">
-        <v>74238</v>
+        <v>266794</v>
       </c>
       <c r="CJ4" s="2">
-        <v>5750</v>
+        <v>157850</v>
       </c>
       <c r="CK4" s="2">
-        <v>6460</v>
+        <v>155698</v>
       </c>
       <c r="CL4" s="2">
-        <v>5400</v>
+        <v>192478</v>
       </c>
       <c r="CM4" s="2">
-        <v>500</v>
+        <v>134890</v>
       </c>
       <c r="CN4" s="2">
-        <v>0</v>
+        <v>173040</v>
       </c>
       <c r="CO4" s="2">
-        <v>8500</v>
+        <v>236251</v>
       </c>
       <c r="CP4" s="2">
-        <v>6000</v>
+        <v>202000</v>
       </c>
       <c r="CQ4" s="2">
-        <v>2750</v>
+        <v>231385</v>
       </c>
       <c r="CR4" s="2">
-        <v>4580</v>
+        <v>235430</v>
       </c>
       <c r="CS4" s="2">
-        <v>5050</v>
+        <v>217513</v>
       </c>
       <c r="CT4" s="2">
-        <v>4526</v>
+        <v>193001</v>
       </c>
       <c r="CU4" s="2">
-        <v>26</v>
+        <v>181326</v>
       </c>
       <c r="CV4" s="2">
-        <v>42</v>
+        <v>228371</v>
       </c>
       <c r="CW4" s="2">
-        <v>0</v>
+        <v>179767</v>
       </c>
       <c r="CX4" s="2">
-        <v>0</v>
+        <v>177100</v>
       </c>
       <c r="CY4" s="2">
-        <v>0</v>
+        <v>219245</v>
       </c>
       <c r="CZ4" s="2">
-        <v>0</v>
+        <v>162625</v>
       </c>
       <c r="DA4" s="2">
-        <v>51008</v>
+        <v>809766</v>
       </c>
       <c r="DB4" s="2">
-        <v>45165</v>
+        <v>713628</v>
       </c>
       <c r="DC4" s="2">
-        <v>44667</v>
+        <v>675617</v>
       </c>
       <c r="DD4" s="2">
-        <v>42242</v>
+        <v>500550</v>
       </c>
       <c r="DE4" s="2">
-        <v>33254</v>
+        <v>547174</v>
       </c>
       <c r="DF4" s="2">
-        <v>37797</v>
+        <v>834546</v>
       </c>
       <c r="DG4" s="2">
-        <v>23967</v>
+        <v>813389</v>
       </c>
       <c r="DH4" s="2">
-        <v>64021</v>
+        <v>1075167</v>
       </c>
       <c r="DI4" s="2">
-        <v>36933</v>
+        <v>864177</v>
       </c>
       <c r="DJ4" s="2">
-        <v>35865</v>
+        <v>1104643</v>
       </c>
       <c r="DK4" s="2">
-        <v>39550</v>
+        <v>871588</v>
       </c>
       <c r="DL4" s="2">
-        <v>36310</v>
+        <v>779206</v>
       </c>
       <c r="DM4" s="2">
-        <v>40510</v>
+        <v>650171</v>
       </c>
       <c r="DN4" s="2">
-        <v>42206</v>
+        <v>600674</v>
       </c>
       <c r="DO4" s="2">
-        <v>46609</v>
+        <v>620903</v>
       </c>
       <c r="DP4" s="2">
-        <v>41308</v>
+        <v>690784</v>
       </c>
       <c r="DQ4" s="2">
-        <v>57827</v>
+        <v>682168</v>
       </c>
       <c r="DR4" s="2">
-        <v>398</v>
+        <v>64198</v>
       </c>
       <c r="DS4" s="2">
-        <v>330</v>
+        <v>38775</v>
       </c>
       <c r="DT4" s="2">
-        <v>246</v>
+        <v>40260</v>
       </c>
       <c r="DU4" s="2">
-        <v>55</v>
+        <v>16521</v>
       </c>
       <c r="DV4" s="2">
-        <v>55</v>
+        <v>29901</v>
       </c>
       <c r="DW4" s="2">
-        <v>135</v>
+        <v>25999</v>
       </c>
       <c r="DX4" s="2">
-        <v>25</v>
+        <v>31812</v>
       </c>
       <c r="DY4" s="2">
-        <v>50</v>
+        <v>38580</v>
       </c>
       <c r="DZ4" s="2">
-        <v>55</v>
+        <v>53035</v>
       </c>
       <c r="EA4" s="2">
-        <v>92</v>
+        <v>59661</v>
       </c>
       <c r="EB4" s="2">
-        <v>27</v>
+        <v>40806</v>
       </c>
       <c r="EC4" s="2">
-        <v>200</v>
+        <v>72224</v>
       </c>
       <c r="ED4" s="2">
-        <v>135</v>
+        <v>33014</v>
       </c>
       <c r="EE4" s="2">
+        <v>44948</v>
+      </c>
+      <c r="EF4" s="2">
+        <v>44538</v>
+      </c>
+      <c r="EG4" s="2">
+        <v>44463</v>
+      </c>
+      <c r="EH4" s="2">
+        <v>34323</v>
+      </c>
+      <c r="EI4" s="2">
+        <v>1042</v>
+      </c>
+      <c r="EJ4" s="2">
+        <v>350</v>
+      </c>
+      <c r="EK4" s="2">
+        <v>415</v>
+      </c>
+      <c r="EL4" s="2">
+        <v>160</v>
+      </c>
+      <c r="EM4" s="2">
+        <v>235</v>
+      </c>
+      <c r="EN4" s="2">
+        <v>170</v>
+      </c>
+      <c r="EO4" s="2">
+        <v>130</v>
+      </c>
+      <c r="EP4" s="2">
+        <v>149</v>
+      </c>
+      <c r="EQ4" s="2">
+        <v>100228</v>
+      </c>
+      <c r="ER4" s="2">
+        <v>40315</v>
+      </c>
+      <c r="ES4" s="2">
+        <v>31793</v>
+      </c>
+      <c r="ET4" s="2">
+        <v>30000</v>
+      </c>
+      <c r="EU4" s="2">
         <v>35</v>
       </c>
-      <c r="EF4" s="2">
-        <v>200</v>
-      </c>
-      <c r="EG4" s="2">
-        <v>155</v>
-      </c>
-      <c r="EH4" s="2">
-        <v>40</v>
-      </c>
-      <c r="EI4" s="2">
-        <v>450</v>
-      </c>
-      <c r="EJ4" s="2">
-        <v>0</v>
-      </c>
-      <c r="EK4" s="2">
-        <v>0</v>
-      </c>
-      <c r="EL4" s="2">
-        <v>0</v>
-      </c>
-      <c r="EM4" s="2">
-        <v>0</v>
-      </c>
-      <c r="EN4" s="2">
-        <v>0</v>
-      </c>
-      <c r="EO4" s="2">
-        <v>0</v>
-      </c>
-      <c r="EP4" s="2">
-        <v>0</v>
-      </c>
-      <c r="EQ4" s="2">
-        <v>26</v>
-      </c>
-      <c r="ER4" s="2">
-        <v>0</v>
-      </c>
-      <c r="ES4" s="2">
-        <v>58</v>
-      </c>
-      <c r="ET4" s="2">
-        <v>75</v>
-      </c>
-      <c r="EU4" s="2">
-        <v>0</v>
-      </c>
       <c r="EV4" s="2">
         <v>0</v>
       </c>
@@ -4035,214 +2995,214 @@
         <v>0</v>
       </c>
       <c r="EX4" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="EY4" s="2">
         <v>0</v>
       </c>
       <c r="EZ4" s="2">
-        <v>24238</v>
+        <v>49743</v>
       </c>
       <c r="FA4" s="2">
-        <v>22905</v>
+        <v>47333</v>
       </c>
       <c r="FB4" s="2">
-        <v>24620</v>
+        <v>48832</v>
       </c>
       <c r="FC4" s="2">
-        <v>20597</v>
+        <v>49906</v>
       </c>
       <c r="FD4" s="2">
-        <v>27468</v>
+        <v>57545</v>
       </c>
       <c r="FE4" s="2">
-        <v>22151</v>
+        <v>43906</v>
       </c>
       <c r="FF4" s="2">
-        <v>19547</v>
+        <v>50112</v>
       </c>
       <c r="FG4" s="2">
-        <v>22410</v>
+        <v>43358</v>
       </c>
       <c r="FH4" s="2">
-        <v>16290</v>
+        <v>38435</v>
       </c>
       <c r="FI4" s="2">
-        <v>18130</v>
+        <v>40937</v>
       </c>
       <c r="FJ4" s="2">
-        <v>18948</v>
+        <v>59756</v>
       </c>
       <c r="FK4" s="2">
-        <v>19773</v>
+        <v>93359</v>
       </c>
       <c r="FL4" s="2">
-        <v>18295</v>
+        <v>41888</v>
       </c>
       <c r="FM4" s="2">
-        <v>20817</v>
+        <v>44154</v>
       </c>
       <c r="FN4" s="2">
-        <v>25007</v>
+        <v>48319</v>
       </c>
       <c r="FO4" s="2">
-        <v>27582</v>
+        <v>51256</v>
       </c>
       <c r="FP4" s="2">
-        <v>30800</v>
+        <v>53947</v>
       </c>
       <c r="FQ4" s="2">
-        <v>240</v>
+        <v>27667</v>
       </c>
       <c r="FR4" s="2">
-        <v>500</v>
+        <v>24144</v>
       </c>
       <c r="FS4" s="2">
-        <v>448</v>
+        <v>22975</v>
       </c>
       <c r="FT4" s="2">
-        <v>427</v>
+        <v>24874</v>
       </c>
       <c r="FU4" s="2">
-        <v>0</v>
+        <v>24250</v>
       </c>
       <c r="FV4" s="2">
-        <v>25</v>
+        <v>23578</v>
       </c>
       <c r="FW4" s="2">
-        <v>1283</v>
+        <v>31076</v>
       </c>
       <c r="FX4" s="2">
-        <v>2025</v>
+        <v>33277</v>
       </c>
       <c r="FY4" s="2">
-        <v>0</v>
+        <v>32686</v>
       </c>
       <c r="FZ4" s="2">
-        <v>0</v>
+        <v>30659</v>
       </c>
       <c r="GA4" s="2">
-        <v>0</v>
+        <v>39156</v>
       </c>
       <c r="GB4" s="2">
-        <v>0</v>
+        <v>39184</v>
       </c>
       <c r="GC4" s="2">
-        <v>0</v>
+        <v>34640</v>
       </c>
       <c r="GD4" s="2">
-        <v>0</v>
+        <v>37840</v>
       </c>
       <c r="GE4" s="2">
-        <v>31</v>
+        <v>37121</v>
       </c>
       <c r="GF4" s="2">
-        <v>0</v>
+        <v>25657</v>
       </c>
       <c r="GG4" s="2">
-        <v>30</v>
+        <v>29847</v>
       </c>
       <c r="GH4" s="2">
-        <v>241111</v>
+        <v>690113</v>
       </c>
       <c r="GI4" s="2">
-        <v>230849</v>
+        <v>661986</v>
       </c>
       <c r="GJ4" s="2">
-        <v>221932</v>
+        <v>673467</v>
       </c>
       <c r="GK4" s="2">
-        <v>182835</v>
+        <v>582052</v>
       </c>
       <c r="GL4" s="2">
-        <v>207706</v>
+        <v>649703</v>
       </c>
       <c r="GM4" s="2">
-        <v>219257</v>
+        <v>720096</v>
       </c>
       <c r="GN4" s="2">
-        <v>216023</v>
+        <v>698774</v>
       </c>
       <c r="GO4" s="2">
-        <v>219255</v>
+        <v>808336</v>
       </c>
       <c r="GP4" s="2">
-        <v>189455</v>
+        <v>744431</v>
       </c>
       <c r="GQ4" s="2">
-        <v>183496</v>
+        <v>941130</v>
       </c>
       <c r="GR4" s="2">
-        <v>157827</v>
+        <v>800049</v>
       </c>
       <c r="GS4" s="2">
-        <v>162700</v>
+        <v>803667</v>
       </c>
       <c r="GT4" s="2">
-        <v>182876</v>
+        <v>791998</v>
       </c>
       <c r="GU4" s="2">
-        <v>158206</v>
+        <v>753219</v>
       </c>
       <c r="GV4" s="2">
-        <v>146087</v>
+        <v>722339</v>
       </c>
       <c r="GW4" s="2">
-        <v>189341</v>
+        <v>791809</v>
       </c>
       <c r="GX4" s="2">
-        <v>159769</v>
+        <v>729710</v>
       </c>
       <c r="GY4" s="2">
-        <v>14633</v>
+        <v>157521</v>
       </c>
       <c r="GZ4" s="2">
-        <v>24301</v>
+        <v>167989</v>
       </c>
       <c r="HA4" s="2">
-        <v>14190</v>
+        <v>165805</v>
       </c>
       <c r="HB4" s="2">
-        <v>21528</v>
+        <v>145029</v>
       </c>
       <c r="HC4" s="2">
-        <v>16855</v>
+        <v>142205</v>
       </c>
       <c r="HD4" s="2">
-        <v>19968</v>
+        <v>136021</v>
       </c>
       <c r="HE4" s="2">
-        <v>15516</v>
+        <v>149761</v>
       </c>
       <c r="HF4" s="2">
-        <v>29443</v>
+        <v>192411</v>
       </c>
       <c r="HG4" s="2">
-        <v>32231</v>
+        <v>259104</v>
       </c>
       <c r="HH4" s="2">
-        <v>26023</v>
+        <v>193846</v>
       </c>
       <c r="HI4" s="2">
-        <v>19879</v>
+        <v>188850</v>
       </c>
       <c r="HJ4" s="2">
-        <v>30923</v>
+        <v>206965</v>
       </c>
       <c r="HK4" s="2">
-        <v>31705</v>
+        <v>200688</v>
       </c>
       <c r="HL4" s="2">
-        <v>27974</v>
+        <v>204880</v>
       </c>
       <c r="HM4" s="2">
-        <v>22737</v>
+        <v>182970</v>
       </c>
       <c r="HN4" s="2">
-        <v>29566</v>
+        <v>191751</v>
       </c>
       <c r="HO4" s="2">
-        <v>30930</v>
+        <v>169804</v>
       </c>
       <c r="HP4" s="2"/>
       <c r="HQ4" s="2"/>
@@ -5602,6 +4562,669 @@
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C7" s="2">
+        <v>826.89456282956007</v>
+      </c>
+      <c r="D7" s="2">
+        <v>817.72181590441028</v>
+      </c>
+      <c r="E7" s="2">
+        <v>723.22079367114588</v>
+      </c>
+      <c r="F7" s="2">
+        <v>689.76657939208178</v>
+      </c>
+      <c r="G7" s="2">
+        <v>685.96863384202959</v>
+      </c>
+      <c r="H7" s="2">
+        <v>693.72542780895265</v>
+      </c>
+      <c r="I7" s="2">
+        <v>695.22597052443928</v>
+      </c>
+      <c r="J7" s="2">
+        <v>712.96366937946914</v>
+      </c>
+      <c r="K7" s="2">
+        <v>733.07982329475806</v>
+      </c>
+      <c r="L7" s="2">
+        <v>739.20965981181246</v>
+      </c>
+      <c r="M7" s="2">
+        <v>739.36531722585153</v>
+      </c>
+      <c r="N7" s="2">
+        <v>746.23486990927302</v>
+      </c>
+      <c r="O7" s="2">
+        <v>731.2250169572086</v>
+      </c>
+      <c r="P7" s="2">
+        <v>727.80764709475659</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>727.19174291914533</v>
+      </c>
+      <c r="R7" s="2">
+        <v>745.70098349621196</v>
+      </c>
+      <c r="S7" s="2">
+        <v>734.93761749725547</v>
+      </c>
+      <c r="T7" s="2">
+        <v>275.53914894978368</v>
+      </c>
+      <c r="U7" s="2">
+        <v>258.47280353193094</v>
+      </c>
+      <c r="V7" s="2">
+        <v>262.71736081895949</v>
+      </c>
+      <c r="W7" s="2">
+        <v>253.22471147318399</v>
+      </c>
+      <c r="X7" s="2">
+        <v>254.59971029833699</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>245.64924044293585</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>253.69572261263113</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>255.48365276998121</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>284.78583473273591</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>273.43004257157389</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>267.05834206163689</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>234.0787101320125</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>251.83042823326878</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>266.20194084630526</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>267.15036861108445</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>283.69769600405522</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>278.98430928474392</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>207.25860688550841</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>197.41364134494458</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>169.47455453139344</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>165.49883007938578</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>160.42276027698088</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>172.73557218998502</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>157.33615682855051</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>159.48390632955937</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>150.40213685246485</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>157.61517716043926</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>156.7355969704706</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>146.62697247876505</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>157.66191707843154</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>154.91712297213317</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>152.05850998813276</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>149.04442040859905</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>164.67556188471303</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>603.93226140151467</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>612.28098274837407</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>565.35205796169168</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>560.5189775046025</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>570.01337023102519</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>565.22656603960957</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>586.66696939611666</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>594.32699091109168</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>591.81578866502093</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>591.18872954249491</v>
+      </c>
+      <c r="BL7" s="2">
+        <v>599.89694102215765</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>551.10080970918443</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>510.3390945931904</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>538.27987540772131</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>541.54294174908182</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>523.64831674089601</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>537.95415335561336</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>1602.047094304605</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>1563.7036491512317</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>1386.111192360004</v>
+      </c>
+      <c r="BV7" s="2">
+        <v>1379.7299298522637</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>1368.2221450332515</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>1380.0160803005501</v>
+      </c>
+      <c r="BY7" s="2">
+        <v>1382.2962850540939</v>
+      </c>
+      <c r="BZ7" s="2">
+        <v>1433.4927183900736</v>
+      </c>
+      <c r="CA7" s="2">
+        <v>1463.4390898522672</v>
+      </c>
+      <c r="CB7" s="2">
+        <v>1467.4334812761288</v>
+      </c>
+      <c r="CC7" s="2">
+        <v>1471.8364747046255</v>
+      </c>
+      <c r="CD7" s="2">
+        <v>1463.3690770539417</v>
+      </c>
+      <c r="CE7" s="2">
+        <v>1435.0197069795406</v>
+      </c>
+      <c r="CF7" s="2">
+        <v>1448.9735375433361</v>
+      </c>
+      <c r="CG7" s="2">
+        <v>1444.5155159660856</v>
+      </c>
+      <c r="CH7" s="2">
+        <v>1465.5916090095839</v>
+      </c>
+      <c r="CI7" s="2">
+        <v>1421.863529905268</v>
+      </c>
+      <c r="CJ7" s="2">
+        <v>160.20504025775048</v>
+      </c>
+      <c r="CK7" s="2">
+        <v>156.77213804509083</v>
+      </c>
+      <c r="CL7" s="2">
+        <v>144.8228232973683</v>
+      </c>
+      <c r="CM7" s="2">
+        <v>140.12738853503186</v>
+      </c>
+      <c r="CN7" s="2">
+        <v>127.85631724015292</v>
+      </c>
+      <c r="CO7" s="2">
+        <v>121.29536242104199</v>
+      </c>
+      <c r="CP7" s="2">
+        <v>135.47062505395837</v>
+      </c>
+      <c r="CQ7" s="2">
+        <v>167.53466658120206</v>
+      </c>
+      <c r="CR7" s="2">
+        <v>173.82911526111207</v>
+      </c>
+      <c r="CS7" s="2">
+        <v>190.47383093970777</v>
+      </c>
+      <c r="CT7" s="2">
+        <v>177.27859833299388</v>
+      </c>
+      <c r="CU7" s="2">
+        <v>181.65814979322241</v>
+      </c>
+      <c r="CV7" s="2">
+        <v>174.13311421528348</v>
+      </c>
+      <c r="CW7" s="2">
+        <v>160.73145082960841</v>
+      </c>
+      <c r="CX7" s="2">
+        <v>181.8961572220569</v>
+      </c>
+      <c r="CY7" s="2">
+        <v>140.08526821158262</v>
+      </c>
+      <c r="CZ7" s="2">
+        <v>131.11654473999425</v>
+      </c>
+      <c r="DA7" s="2">
+        <v>1345.1805427171707</v>
+      </c>
+      <c r="DB7" s="2">
+        <v>1298.117058554092</v>
+      </c>
+      <c r="DC7" s="2">
+        <v>1134.8566333527083</v>
+      </c>
+      <c r="DD7" s="2">
+        <v>1082.5358009653023</v>
+      </c>
+      <c r="DE7" s="2">
+        <v>1070.5475388282953</v>
+      </c>
+      <c r="DF7" s="2">
+        <v>1078.9458471305927</v>
+      </c>
+      <c r="DG7" s="2">
+        <v>1075.7117462939793</v>
+      </c>
+      <c r="DH7" s="2">
+        <v>1104.9741316453931</v>
+      </c>
+      <c r="DI7" s="2">
+        <v>1109.0041731586109</v>
+      </c>
+      <c r="DJ7" s="2">
+        <v>1087.0018110937781</v>
+      </c>
+      <c r="DK7" s="2">
+        <v>1077.2245834784105</v>
+      </c>
+      <c r="DL7" s="2">
+        <v>1063.7456220995864</v>
+      </c>
+      <c r="DM7" s="2">
+        <v>996.79969364588749</v>
+      </c>
+      <c r="DN7" s="2">
+        <v>995.21478169115755</v>
+      </c>
+      <c r="DO7" s="2">
+        <v>986.4058480203912</v>
+      </c>
+      <c r="DP7" s="2">
+        <v>989.94659963741833</v>
+      </c>
+      <c r="DQ7" s="2">
+        <v>945.2620211452471</v>
+      </c>
+      <c r="DR7" s="2">
+        <v>323.36356308486086</v>
+      </c>
+      <c r="DS7" s="2">
+        <v>303.50618114359878</v>
+      </c>
+      <c r="DT7" s="2">
+        <v>270.51604272210886</v>
+      </c>
+      <c r="DU7" s="2">
+        <v>259.14366899319401</v>
+      </c>
+      <c r="DV7" s="2">
+        <v>250.50203999456232</v>
+      </c>
+      <c r="DW7" s="2">
+        <v>260.80794610391439</v>
+      </c>
+      <c r="DX7" s="2">
+        <v>250.71544245571542</v>
+      </c>
+      <c r="DY7" s="2">
+        <v>245.23519154983521</v>
+      </c>
+      <c r="DZ7" s="2">
+        <v>253.09027344237734</v>
+      </c>
+      <c r="EA7" s="2">
+        <v>240.5198250182307</v>
+      </c>
+      <c r="EB7" s="2">
+        <v>242.18083232998339</v>
+      </c>
+      <c r="EC7" s="2">
+        <v>234.91976686084078</v>
+      </c>
+      <c r="ED7" s="2">
+        <v>224.06692333869796</v>
+      </c>
+      <c r="EE7" s="2">
+        <v>208.57644861374101</v>
+      </c>
+      <c r="EF7" s="2">
+        <v>202.14218711114231</v>
+      </c>
+      <c r="EG7" s="2">
+        <v>211.09521261946293</v>
+      </c>
+      <c r="EH7" s="2">
+        <v>198.19599831345943</v>
+      </c>
+      <c r="EI7" s="2">
+        <v>13.392080700330453</v>
+      </c>
+      <c r="EJ7" s="2">
+        <v>13.701970213039615</v>
+      </c>
+      <c r="EK7" s="2">
+        <v>12.00362417790822</v>
+      </c>
+      <c r="EL7" s="2">
+        <v>10.291397214276831</v>
+      </c>
+      <c r="EM7" s="2">
+        <v>9.3337945668495497</v>
+      </c>
+      <c r="EN7" s="2">
+        <v>9.4694207963285795</v>
+      </c>
+      <c r="EO7" s="2">
+        <v>9.7522274363688251</v>
+      </c>
+      <c r="EP7" s="2">
+        <v>10.897143972415588</v>
+      </c>
+      <c r="EQ7" s="2">
+        <v>8.8440816506820035</v>
+      </c>
+      <c r="ER7" s="2">
+        <v>8.5269106291647851</v>
+      </c>
+      <c r="ES7" s="2">
+        <v>8.4272357108281337</v>
+      </c>
+      <c r="ET7" s="2">
+        <v>7.8388186114910132</v>
+      </c>
+      <c r="EU7" s="2">
+        <v>7.4100808097358417</v>
+      </c>
+      <c r="EV7" s="2">
+        <v>9.8586792937635348</v>
+      </c>
+      <c r="EW7" s="2">
+        <v>9.7298101787829374</v>
+      </c>
+      <c r="EX7" s="2">
+        <v>8.9198527550853033</v>
+      </c>
+      <c r="EY7" s="2">
+        <v>7.9365022367420339</v>
+      </c>
+      <c r="EZ7" s="2">
+        <v>65.047572742384361</v>
+      </c>
+      <c r="FA7" s="2">
+        <v>63.076855614347934</v>
+      </c>
+      <c r="FB7" s="2">
+        <v>56.803299277406843</v>
+      </c>
+      <c r="FC7" s="2">
+        <v>52.793880898214006</v>
+      </c>
+      <c r="FD7" s="2">
+        <v>49.429857164459889</v>
+      </c>
+      <c r="FE7" s="2">
+        <v>44.074091316138968</v>
+      </c>
+      <c r="FF7" s="2">
+        <v>41.028658161974633</v>
+      </c>
+      <c r="FG7" s="2">
+        <v>39.178350130256831</v>
+      </c>
+      <c r="FH7" s="2">
+        <v>40.856465598805116</v>
+      </c>
+      <c r="FI7" s="2">
+        <v>39.334975892976651</v>
+      </c>
+      <c r="FJ7" s="2">
+        <v>37.139317511269788</v>
+      </c>
+      <c r="FK7" s="2">
+        <v>36.455552267875625</v>
+      </c>
+      <c r="FL7" s="2">
+        <v>33.135842824316015</v>
+      </c>
+      <c r="FM7" s="2">
+        <v>34.594907033938611</v>
+      </c>
+      <c r="FN7" s="2">
+        <v>33.087766617687507</v>
+      </c>
+      <c r="FO7" s="2">
+        <v>33.617952834033012</v>
+      </c>
+      <c r="FP7" s="2">
+        <v>33.280208751172943</v>
+      </c>
+      <c r="FQ7" s="2">
+        <v>302.75421791720674</v>
+      </c>
+      <c r="FR7" s="2">
+        <v>294.77755254454286</v>
+      </c>
+      <c r="FS7" s="2">
+        <v>274.46021710604793</v>
+      </c>
+      <c r="FT7" s="2">
+        <v>224.00805607535921</v>
+      </c>
+      <c r="FU7" s="2">
+        <v>207.63373682155409</v>
+      </c>
+      <c r="FV7" s="2">
+        <v>192.09796356631173</v>
+      </c>
+      <c r="FW7" s="2">
+        <v>188.76812928408725</v>
+      </c>
+      <c r="FX7" s="2">
+        <v>198.67699351111835</v>
+      </c>
+      <c r="FY7" s="2">
+        <v>172.69729495382109</v>
+      </c>
+      <c r="FZ7" s="2">
+        <v>163.92026961762173</v>
+      </c>
+      <c r="GA7" s="2">
+        <v>160.9820428988304</v>
+      </c>
+      <c r="GB7" s="2">
+        <v>137.83188740072865</v>
+      </c>
+      <c r="GC7" s="2">
+        <v>157.55347961626296</v>
+      </c>
+      <c r="GD7" s="2">
+        <v>147.080511287745</v>
+      </c>
+      <c r="GE7" s="2">
+        <v>138.59718722824016</v>
+      </c>
+      <c r="GF7" s="2">
+        <v>141.3037197354528</v>
+      </c>
+      <c r="GG7" s="2">
+        <v>154.94738388257636</v>
+      </c>
+      <c r="GH7" s="2">
+        <v>2425.6274607343621</v>
+      </c>
+      <c r="GI7" s="2">
+        <v>2418.3252523245178</v>
+      </c>
+      <c r="GJ7" s="2">
+        <v>2117.0358028424303</v>
+      </c>
+      <c r="GK7" s="2">
+        <v>1994.529617973184</v>
+      </c>
+      <c r="GL7" s="2">
+        <v>2002.2264284829955</v>
+      </c>
+      <c r="GM7" s="2">
+        <v>2052.0022112012357</v>
+      </c>
+      <c r="GN7" s="2">
+        <v>2056.8580589135681</v>
+      </c>
+      <c r="GO7" s="2">
+        <v>2119.5018523861922</v>
+      </c>
+      <c r="GP7" s="2">
+        <v>2200.0501479074587</v>
+      </c>
+      <c r="GQ7" s="2">
+        <v>2248.4802181913778</v>
+      </c>
+      <c r="GR7" s="2">
+        <v>2256.4936473010334</v>
+      </c>
+      <c r="GS7" s="2">
+        <v>2329.1687973547546</v>
+      </c>
+      <c r="GT7" s="2">
+        <v>2323.9248021054632</v>
+      </c>
+      <c r="GU7" s="2">
+        <v>2290.6721176069227</v>
+      </c>
+      <c r="GV7" s="2">
+        <v>2299.3674761240591</v>
+      </c>
+      <c r="GW7" s="2">
+        <v>2384.9589613424564</v>
+      </c>
+      <c r="GX7" s="2">
+        <v>2381.4824938399174</v>
+      </c>
+      <c r="GY7" s="2">
+        <v>1533.8610856017217</v>
+      </c>
+      <c r="GZ7" s="2">
+        <v>1580.7238953371857</v>
+      </c>
+      <c r="HA7" s="2">
+        <v>1436.2457316390507</v>
+      </c>
+      <c r="HB7" s="2">
+        <v>1383.2500356864809</v>
+      </c>
+      <c r="HC7" s="2">
+        <v>1386.7843961609185</v>
+      </c>
+      <c r="HD7" s="2">
+        <v>1389.3656609732602</v>
+      </c>
+      <c r="HE7" s="2">
+        <v>1418.9116365030593</v>
+      </c>
+      <c r="HF7" s="2">
+        <v>1433.1316140644881</v>
+      </c>
+      <c r="HG7" s="2">
+        <v>1515.857809656449</v>
+      </c>
+      <c r="HH7" s="2">
+        <v>1569.6763952382139</v>
+      </c>
+      <c r="HI7" s="2">
+        <v>1598.2750527522467</v>
+      </c>
+      <c r="HJ7" s="2">
+        <v>1653.9830237469791</v>
+      </c>
+      <c r="HK7" s="2">
+        <v>1628.19580170514</v>
+      </c>
+      <c r="HL7" s="2">
+        <v>1645.6482849046831</v>
+      </c>
+      <c r="HM7" s="2">
+        <v>1657.2313005466042</v>
+      </c>
+      <c r="HN7" s="2">
+        <v>1743.4560500062169</v>
+      </c>
+      <c r="HO7" s="2">
+        <v>1735.8760503825274</v>
+      </c>
     </row>
     <row r="8" spans="1:227" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -5610,6 +5233,669 @@
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C8" s="2">
+        <v>6556.6687363487654</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6275.926584443996</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6274.4528892223889</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4893.2840934719943</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5278.3803722369348</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5698.3243594840178</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5619.0203872730908</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5670.6751659983702</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5894.41542994474</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5875.3327335843896</v>
+      </c>
+      <c r="M8" s="2">
+        <v>6108.4632394024511</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5818.9109390669282</v>
+      </c>
+      <c r="O8" s="2">
+        <v>5694.6376130370982</v>
+      </c>
+      <c r="P8" s="2">
+        <v>5823.704950810733</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>6122.572320197246</v>
+      </c>
+      <c r="R8" s="2">
+        <v>6317.0626516281018</v>
+      </c>
+      <c r="S8" s="2">
+        <v>6220.5571313472074</v>
+      </c>
+      <c r="T8" s="2">
+        <v>9860.9214319483308</v>
+      </c>
+      <c r="U8" s="2">
+        <v>9791.3128057208523</v>
+      </c>
+      <c r="V8" s="2">
+        <v>10048.043752629364</v>
+      </c>
+      <c r="W8" s="2">
+        <v>9112.8697008884865</v>
+      </c>
+      <c r="X8" s="2">
+        <v>9260.0298754839969</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>9225.9786600634361</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>9348.9779493486549</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>10063.736240747263</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>10383.310751073746</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>9137.862920925565</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>10161.501938723841</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>9640.8323489385803</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>9698.5082849149985</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>10247.161361858674</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>10274.350983649318</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>10439.134366084303</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>9775.2710627166052</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>10688.049639711769</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>10579.553366246973</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>11268.109540636042</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>9692.9384310715905</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>10055.89456535621</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>10485.143325499979</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>11418.675552372204</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>11614.504001033931</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>11942.256475157381</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>13521.658284365496</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>12108.207425286822</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>12454.336749670158</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>12395.104246817898</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>12001.678874319407</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>12049.282318119436</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>13842.154127537497</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>12842.822425855984</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>14182.366764153714</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>13645.95811222619</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>14415.56060058605</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>11422.213633549021</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>11011.26001471762</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>13464.419522145608</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>11840.815222887997</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>12816.884925246351</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>12539.924406158132</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>12578.515180091361</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>13682.812573195297</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>13018.847766940504</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>13108.486635276187</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>12886.925975367307</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>14437.243858745</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>15233.118286612524</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>15422.827953314274</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>9482.691103120289</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>9828.6417866480097</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>9344.5676177662081</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>8323.1356701375607</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>7632.5774844596899</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>8224.4977610164478</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>8149.8901241009435</v>
+      </c>
+      <c r="BZ8" s="2">
+        <v>8280.6899838226254</v>
+      </c>
+      <c r="CA8" s="2">
+        <v>9208.0520074214674</v>
+      </c>
+      <c r="CB8" s="2">
+        <v>8905.6675863110704</v>
+      </c>
+      <c r="CC8" s="2">
+        <v>9113.0575178374729</v>
+      </c>
+      <c r="CD8" s="2">
+        <v>9371.4984596263439</v>
+      </c>
+      <c r="CE8" s="2">
+        <v>8630.9081384024157</v>
+      </c>
+      <c r="CF8" s="2">
+        <v>8943.6547154079071</v>
+      </c>
+      <c r="CG8" s="2">
+        <v>10084.452271086087</v>
+      </c>
+      <c r="CH8" s="2">
+        <v>10453.374035200919</v>
+      </c>
+      <c r="CI8" s="2">
+        <v>10303.898521340931</v>
+      </c>
+      <c r="CJ8" s="2">
+        <v>6525.1886786504665</v>
+      </c>
+      <c r="CK8" s="2">
+        <v>6342.1759856020626</v>
+      </c>
+      <c r="CL8" s="2">
+        <v>6274.9348152440143</v>
+      </c>
+      <c r="CM8" s="2">
+        <v>5621.5508416742496</v>
+      </c>
+      <c r="CN8" s="2">
+        <v>5241.7755846003374</v>
+      </c>
+      <c r="CO8" s="2">
+        <v>5005.6743171549697</v>
+      </c>
+      <c r="CP8" s="2">
+        <v>5256.4021626521626</v>
+      </c>
+      <c r="CQ8" s="2">
+        <v>5821.2240668333225</v>
+      </c>
+      <c r="CR8" s="2">
+        <v>5446.9536927497047</v>
+      </c>
+      <c r="CS8" s="2">
+        <v>5390.6021400499149</v>
+      </c>
+      <c r="CT8" s="2">
+        <v>5857.7630768199524</v>
+      </c>
+      <c r="CU8" s="2">
+        <v>5748.8717162414187</v>
+      </c>
+      <c r="CV8" s="2">
+        <v>5461.3564250047402</v>
+      </c>
+      <c r="CW8" s="2">
+        <v>5999.4829849337793</v>
+      </c>
+      <c r="CX8" s="2">
+        <v>6420.1148807305954</v>
+      </c>
+      <c r="CY8" s="2">
+        <v>6660.1143380513749</v>
+      </c>
+      <c r="CZ8" s="2">
+        <v>6836.6512567191658</v>
+      </c>
+      <c r="DA8" s="2">
+        <v>10420.842890475928</v>
+      </c>
+      <c r="DB8" s="2">
+        <v>9595.8872241011541</v>
+      </c>
+      <c r="DC8" s="2">
+        <v>9343.4725350945737</v>
+      </c>
+      <c r="DD8" s="2">
+        <v>4930.7511341945765</v>
+      </c>
+      <c r="DE8" s="2">
+        <v>8322.2668433888557</v>
+      </c>
+      <c r="DF8" s="2">
+        <v>8712.8533830964352</v>
+      </c>
+      <c r="DG8" s="2">
+        <v>8342.115519328805</v>
+      </c>
+      <c r="DH8" s="2">
+        <v>8371.9904257528451</v>
+      </c>
+      <c r="DI8" s="2">
+        <v>9220.0437629702374</v>
+      </c>
+      <c r="DJ8" s="2">
+        <v>8866.1714200763217</v>
+      </c>
+      <c r="DK8" s="2">
+        <v>9401.9753508866706</v>
+      </c>
+      <c r="DL8" s="2">
+        <v>8846.1004324400365</v>
+      </c>
+      <c r="DM8" s="2">
+        <v>8346.0384086495305</v>
+      </c>
+      <c r="DN8" s="2">
+        <v>8688.5158233170005</v>
+      </c>
+      <c r="DO8" s="2">
+        <v>9090.3518952394716</v>
+      </c>
+      <c r="DP8" s="2">
+        <v>9007.2161051782859</v>
+      </c>
+      <c r="DQ8" s="2">
+        <v>8674.3937532150485</v>
+      </c>
+      <c r="DR8" s="2">
+        <v>1616.8142048239426</v>
+      </c>
+      <c r="DS8" s="2">
+        <v>1451.1818904701893</v>
+      </c>
+      <c r="DT8" s="2">
+        <v>1419.717963901134</v>
+      </c>
+      <c r="DU8" s="2">
+        <v>549.03846320748323</v>
+      </c>
+      <c r="DV8" s="2">
+        <v>1182.6031741661488</v>
+      </c>
+      <c r="DW8" s="2">
+        <v>1244.8400952453319</v>
+      </c>
+      <c r="DX8" s="2">
+        <v>1400.2054169396097</v>
+      </c>
+      <c r="DY8" s="2">
+        <v>1375.5312429657552</v>
+      </c>
+      <c r="DZ8" s="2">
+        <v>1527.8470054521995</v>
+      </c>
+      <c r="EA8" s="2">
+        <v>1463.7314193360305</v>
+      </c>
+      <c r="EB8" s="2">
+        <v>1895.9628473843281</v>
+      </c>
+      <c r="EC8" s="2">
+        <v>1705.4656842399947</v>
+      </c>
+      <c r="ED8" s="2">
+        <v>1862.101159389128</v>
+      </c>
+      <c r="EE8" s="2">
+        <v>1864.3107571384749</v>
+      </c>
+      <c r="EF8" s="2">
+        <v>2303.6902794351313</v>
+      </c>
+      <c r="EG8" s="2">
+        <v>2347.6643990211878</v>
+      </c>
+      <c r="EH8" s="2">
+        <v>2382.2542640503825</v>
+      </c>
+      <c r="EI8" s="2">
+        <v>580.39060433918348</v>
+      </c>
+      <c r="EJ8" s="2">
+        <v>540.32452470785324</v>
+      </c>
+      <c r="EK8" s="2">
+        <v>625.1214603608471</v>
+      </c>
+      <c r="EL8" s="2">
+        <v>582.12559072254703</v>
+      </c>
+      <c r="EM8" s="2">
+        <v>540.80428560661551</v>
+      </c>
+      <c r="EN8" s="2">
+        <v>554.47052309970013</v>
+      </c>
+      <c r="EO8" s="2">
+        <v>526.04097930471448</v>
+      </c>
+      <c r="EP8" s="2">
+        <v>492.59070748200395</v>
+      </c>
+      <c r="EQ8" s="2">
+        <v>522.79694748574241</v>
+      </c>
+      <c r="ER8" s="2">
+        <v>400.64577196956674</v>
+      </c>
+      <c r="ES8" s="2">
+        <v>456.14375568547109</v>
+      </c>
+      <c r="ET8" s="2">
+        <v>427.27877667169366</v>
+      </c>
+      <c r="EU8" s="2">
+        <v>333.71380112789694</v>
+      </c>
+      <c r="EV8" s="2">
+        <v>466.80505083874755</v>
+      </c>
+      <c r="EW8" s="2">
+        <v>502.68752583107204</v>
+      </c>
+      <c r="EX8" s="2">
+        <v>546.10817294724086</v>
+      </c>
+      <c r="EY8" s="2">
+        <v>640.71976484225024</v>
+      </c>
+      <c r="EZ8" s="2">
+        <v>403.08451725615583</v>
+      </c>
+      <c r="FA8" s="2">
+        <v>412.05688894086006</v>
+      </c>
+      <c r="FB8" s="2">
+        <v>471.01332445425817</v>
+      </c>
+      <c r="FC8" s="2">
+        <v>359.0780416874274</v>
+      </c>
+      <c r="FD8" s="2">
+        <v>358.90608822512081</v>
+      </c>
+      <c r="FE8" s="2">
+        <v>345.11929136783948</v>
+      </c>
+      <c r="FF8" s="2">
+        <v>275.43666654620358</v>
+      </c>
+      <c r="FG8" s="2">
+        <v>366.44730958349356</v>
+      </c>
+      <c r="FH8" s="2">
+        <v>263.58605607212036</v>
+      </c>
+      <c r="FI8" s="2">
+        <v>200.20806776736163</v>
+      </c>
+      <c r="FJ8" s="2">
+        <v>196.40884285221605</v>
+      </c>
+      <c r="FK8" s="2">
+        <v>235.61158215628726</v>
+      </c>
+      <c r="FL8" s="2">
+        <v>242.5037446441244</v>
+      </c>
+      <c r="FM8" s="2">
+        <v>202.25424986707108</v>
+      </c>
+      <c r="FN8" s="2">
+        <v>233.92661849264979</v>
+      </c>
+      <c r="FO8" s="2">
+        <v>192.31774569577703</v>
+      </c>
+      <c r="FP8" s="2">
+        <v>223.80457957271935</v>
+      </c>
+      <c r="FQ8" s="2">
+        <v>5254.744988786284</v>
+      </c>
+      <c r="FR8" s="2">
+        <v>5046.0898324975988</v>
+      </c>
+      <c r="FS8" s="2">
+        <v>4980.733495036251</v>
+      </c>
+      <c r="FT8" s="2">
+        <v>5456.1356211741568</v>
+      </c>
+      <c r="FU8" s="2">
+        <v>4299.4448958915964</v>
+      </c>
+      <c r="FV8" s="2">
+        <v>5172.2994489154635</v>
+      </c>
+      <c r="FW8" s="2">
+        <v>5191.1853671623894</v>
+      </c>
+      <c r="FX8" s="2">
+        <v>4028.9069296209955</v>
+      </c>
+      <c r="FY8" s="2">
+        <v>4587.8739309221337</v>
+      </c>
+      <c r="FZ8" s="2">
+        <v>4525.9013501879344</v>
+      </c>
+      <c r="GA8" s="2">
+        <v>4629.6521581818988</v>
+      </c>
+      <c r="GB8" s="2">
+        <v>4450.9606059811813</v>
+      </c>
+      <c r="GC8" s="2">
+        <v>4616.1030080727414</v>
+      </c>
+      <c r="GD8" s="2">
+        <v>4505.3361918982255</v>
+      </c>
+      <c r="GE8" s="2">
+        <v>4258.6825214583532</v>
+      </c>
+      <c r="GF8" s="2">
+        <v>5189.1649112485093</v>
+      </c>
+      <c r="GG8" s="2">
+        <v>4427.2003818996354</v>
+      </c>
+      <c r="GH8" s="2">
+        <v>12357.260853546939</v>
+      </c>
+      <c r="GI8" s="2">
+        <v>11576.136070827699</v>
+      </c>
+      <c r="GJ8" s="2">
+        <v>11865.24030758769</v>
+      </c>
+      <c r="GK8" s="2">
+        <v>9538.29142429083</v>
+      </c>
+      <c r="GL8" s="2">
+        <v>9818.9575877629941</v>
+      </c>
+      <c r="GM8" s="2">
+        <v>10694.714474286076</v>
+      </c>
+      <c r="GN8" s="2">
+        <v>10611.278563345373</v>
+      </c>
+      <c r="GO8" s="2">
+        <v>10592.144741596054</v>
+      </c>
+      <c r="GP8" s="2">
+        <v>10425.185384359378</v>
+      </c>
+      <c r="GQ8" s="2">
+        <v>10645.863728969505</v>
+      </c>
+      <c r="GR8" s="2">
+        <v>11373.356386943888</v>
+      </c>
+      <c r="GS8" s="2">
+        <v>10810.730518719834</v>
+      </c>
+      <c r="GT8" s="2">
+        <v>10800.860986343228</v>
+      </c>
+      <c r="GU8" s="2">
+        <v>10857.300513838263</v>
+      </c>
+      <c r="GV8" s="2">
+        <v>11084.216589211197</v>
+      </c>
+      <c r="GW8" s="2">
+        <v>11352.930044026099</v>
+      </c>
+      <c r="GX8" s="2">
+        <v>11102.974328353908</v>
+      </c>
+      <c r="GY8" s="2">
+        <v>15028.795329795512</v>
+      </c>
+      <c r="GZ8" s="2">
+        <v>14464.998481638326</v>
+      </c>
+      <c r="HA8" s="2">
+        <v>13633.915451466637</v>
+      </c>
+      <c r="HB8" s="2">
+        <v>11548.025245886422</v>
+      </c>
+      <c r="HC8" s="2">
+        <v>11198.260388735534</v>
+      </c>
+      <c r="HD8" s="2">
+        <v>12645.391243913275</v>
+      </c>
+      <c r="HE8" s="2">
+        <v>12592.933535228962</v>
+      </c>
+      <c r="HF8" s="2">
+        <v>12376.470223132545</v>
+      </c>
+      <c r="HG8" s="2">
+        <v>13464.699365046876</v>
+      </c>
+      <c r="HH8" s="2">
+        <v>14089.81884974577</v>
+      </c>
+      <c r="HI8" s="2">
+        <v>13977.408945035233</v>
+      </c>
+      <c r="HJ8" s="2">
+        <v>12427.636249618085</v>
+      </c>
+      <c r="HK8" s="2">
+        <v>12450.372415021258</v>
+      </c>
+      <c r="HL8" s="2">
+        <v>13127.242307853436</v>
+      </c>
+      <c r="HM8" s="2">
+        <v>13909.890661300029</v>
+      </c>
+      <c r="HN8" s="2">
+        <v>14337.198474695891</v>
+      </c>
+      <c r="HO8" s="2">
+        <v>15060.639994266568</v>
+      </c>
     </row>
     <row r="9" spans="1:227" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -5618,6 +5904,669 @@
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C9" s="2">
+        <v>97.316872531746512</v>
+      </c>
+      <c r="D9" s="2">
+        <v>95.280093450490469</v>
+      </c>
+      <c r="E9" s="2">
+        <v>90.069191572828416</v>
+      </c>
+      <c r="F9" s="2">
+        <v>68.669140393508826</v>
+      </c>
+      <c r="G9" s="2">
+        <v>76.174656317566601</v>
+      </c>
+      <c r="H9" s="2">
+        <v>76.380240661969438</v>
+      </c>
+      <c r="I9" s="2">
+        <v>69.782376986704591</v>
+      </c>
+      <c r="J9" s="2">
+        <v>75.336508295150168</v>
+      </c>
+      <c r="K9" s="2">
+        <v>63.65678762217243</v>
+      </c>
+      <c r="L9" s="2">
+        <v>64.279187884691225</v>
+      </c>
+      <c r="M9" s="2">
+        <v>62.520524146350873</v>
+      </c>
+      <c r="N9" s="2">
+        <v>59.459651260200722</v>
+      </c>
+      <c r="O9" s="2">
+        <v>49.417143026552708</v>
+      </c>
+      <c r="P9" s="2">
+        <v>50.106513424803673</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>47.171095582231672</v>
+      </c>
+      <c r="R9" s="2">
+        <v>51.061770955874913</v>
+      </c>
+      <c r="S9" s="2">
+        <v>44.877944204411065</v>
+      </c>
+      <c r="T9" s="2">
+        <v>61.317418056824366</v>
+      </c>
+      <c r="U9" s="2">
+        <v>92.852641445818008</v>
+      </c>
+      <c r="V9" s="2">
+        <v>104.47342588697238</v>
+      </c>
+      <c r="W9" s="2">
+        <v>86.562407831105574</v>
+      </c>
+      <c r="X9" s="2">
+        <v>105.50433159698042</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>105.37810917589449</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>103.82515565063183</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>72.522637174127553</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>56.848004826848999</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>100.07106874856295</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>95.028682014608052</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>97.748671930588074</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>97.439208091241667</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>67.302154872315</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>44.617729026235224</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>40.062197958016377</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>43.630433032219159</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>25.940752602081666</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>17.921175375353467</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>29.865573481885743</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>12.504161541262951</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>10.590811536508708</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>29.550046113624592</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>123.98734796916173</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>105.26737280455885</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>105.57666160539182</v>
+      </c>
+      <c r="BE9" s="2">
+        <v>122.4924883741226</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>136.5007306986723</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>86.890139831060736</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>131.79051397268418</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>127.86997863006147</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>82.223155479529225</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>81.560587690184889</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>66.09828078886963</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>50.806758497469531</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>30.345940461321863</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>20.040088341314259</v>
+      </c>
+      <c r="BP9" s="2">
+        <v>36.643026004728128</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>57.309405292114221</v>
+      </c>
+      <c r="BR9" s="2">
+        <v>57.303189127129173</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>53.126087460851409</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>48.606252531575656</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>53.563332699591967</v>
+      </c>
+      <c r="BV9" s="2">
+        <v>65.777698634567628</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>87.244643206043904</v>
+      </c>
+      <c r="BX9" s="2">
+        <v>86.53076529251004</v>
+      </c>
+      <c r="BY9" s="2">
+        <v>73.056022788809273</v>
+      </c>
+      <c r="BZ9" s="2">
+        <v>114.41954040491807</v>
+      </c>
+      <c r="CA9" s="2">
+        <v>62.555692262637116</v>
+      </c>
+      <c r="CB9" s="2">
+        <v>66.252604548463495</v>
+      </c>
+      <c r="CC9" s="2">
+        <v>59.472992758847958</v>
+      </c>
+      <c r="CD9" s="2">
+        <v>61.703093528667701</v>
+      </c>
+      <c r="CE9" s="2">
+        <v>55.815932240337247</v>
+      </c>
+      <c r="CF9" s="2">
+        <v>53.275990696449732</v>
+      </c>
+      <c r="CG9" s="2">
+        <v>53.259769921303644</v>
+      </c>
+      <c r="CH9" s="2">
+        <v>34.190971479469638</v>
+      </c>
+      <c r="CI9" s="2">
+        <v>34.082567203831232</v>
+      </c>
+      <c r="CJ9" s="2">
+        <v>32.313386253727863</v>
+      </c>
+      <c r="CK9" s="2">
+        <v>32.225113699929466</v>
+      </c>
+      <c r="CL9" s="2">
+        <v>82.523462122608791</v>
+      </c>
+      <c r="CM9" s="2">
+        <v>82.176979071883522</v>
+      </c>
+      <c r="CN9" s="2">
+        <v>37.648928603183073</v>
+      </c>
+      <c r="CO9" s="2">
+        <v>78.418188427782283</v>
+      </c>
+      <c r="CP9" s="2">
+        <v>59.219330052663388</v>
+      </c>
+      <c r="CQ9" s="2">
+        <v>55.218148409290002</v>
+      </c>
+      <c r="CR9" s="2">
+        <v>57.831248943721477</v>
+      </c>
+      <c r="CS9" s="2">
+        <v>52.418965755550282</v>
+      </c>
+      <c r="CT9" s="2">
+        <v>39.960709599078072</v>
+      </c>
+      <c r="CU9" s="2">
+        <v>55.872050453226926</v>
+      </c>
+      <c r="CV9" s="2">
+        <v>54.484545856772641</v>
+      </c>
+      <c r="CW9" s="2">
+        <v>57.122635471751153</v>
+      </c>
+      <c r="CX9" s="2">
+        <v>58.390619490713767</v>
+      </c>
+      <c r="CY9" s="2">
+        <v>65.539048908512143</v>
+      </c>
+      <c r="CZ9" s="2">
+        <v>70.63167585653899</v>
+      </c>
+      <c r="DA9" s="2">
+        <v>98.230578201482103</v>
+      </c>
+      <c r="DB9" s="2">
+        <v>121.98122952116358</v>
+      </c>
+      <c r="DC9" s="2">
+        <v>112.79821345113693</v>
+      </c>
+      <c r="DD9" s="2">
+        <v>35.436247909888785</v>
+      </c>
+      <c r="DE9" s="2">
+        <v>96.34308101614242</v>
+      </c>
+      <c r="DF9" s="2">
+        <v>100.98833170217189</v>
+      </c>
+      <c r="DG9" s="2">
+        <v>101.12850912889786</v>
+      </c>
+      <c r="DH9" s="2">
+        <v>65.76610399184662</v>
+      </c>
+      <c r="DI9" s="2">
+        <v>77.016173951001804</v>
+      </c>
+      <c r="DJ9" s="2">
+        <v>55.08517564997976</v>
+      </c>
+      <c r="DK9" s="2">
+        <v>48.535821056802213</v>
+      </c>
+      <c r="DL9" s="2">
+        <v>45.5935163425819</v>
+      </c>
+      <c r="DM9" s="2">
+        <v>40.074698681334532</v>
+      </c>
+      <c r="DN9" s="2">
+        <v>38.049579544704784</v>
+      </c>
+      <c r="DO9" s="2">
+        <v>41.417206187874193</v>
+      </c>
+      <c r="DP9" s="2">
+        <v>48.853782089808533</v>
+      </c>
+      <c r="DQ9" s="2">
+        <v>48.073280726518426</v>
+      </c>
+      <c r="DR9" s="2">
+        <v>7.2212007232032525</v>
+      </c>
+      <c r="DS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT9" s="2">
+        <v>4.3862534815887013</v>
+      </c>
+      <c r="DU9" s="2">
+        <v>5.207347915064684</v>
+      </c>
+      <c r="DV9" s="2">
+        <v>2.5811824913229246E-2</v>
+      </c>
+      <c r="DW9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EQ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="ER9" s="2">
+        <v>0</v>
+      </c>
+      <c r="ES9" s="2">
+        <v>0</v>
+      </c>
+      <c r="ET9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EU9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EV9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EW9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EY9" s="2">
+        <v>0</v>
+      </c>
+      <c r="EZ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FC9" s="2">
+        <v>1.4534959775952316E-2</v>
+      </c>
+      <c r="FD9" s="2">
+        <v>1.7381520315231255E-2</v>
+      </c>
+      <c r="FE9" s="2">
+        <v>4.9155948983064621E-2</v>
+      </c>
+      <c r="FF9" s="2">
+        <v>8.673340320190813E-3</v>
+      </c>
+      <c r="FG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FJ9" s="2">
+        <v>8.557709340825323E-3</v>
+      </c>
+      <c r="FK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="2">
+        <v>12.101133203896026</v>
+      </c>
+      <c r="FR9" s="2">
+        <v>17.603755467833139</v>
+      </c>
+      <c r="FS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FU9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FV9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FW9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FY9" s="2">
+        <v>0</v>
+      </c>
+      <c r="FZ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="GA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="GB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="GC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="GD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="GE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="GF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="GG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="GH9" s="2">
+        <v>119.01932254783948</v>
+      </c>
+      <c r="GI9" s="2">
+        <v>113.61550341120181</v>
+      </c>
+      <c r="GJ9" s="2">
+        <v>108.76479378099746</v>
+      </c>
+      <c r="GK9" s="2">
+        <v>92.371546014120497</v>
+      </c>
+      <c r="GL9" s="2">
+        <v>98.176397614618068</v>
+      </c>
+      <c r="GM9" s="2">
+        <v>102.95439210835052</v>
+      </c>
+      <c r="GN9" s="2">
+        <v>86.098778697868255</v>
+      </c>
+      <c r="GO9" s="2">
+        <v>93.18068888427733</v>
+      </c>
+      <c r="GP9" s="2">
+        <v>77.561821936162872</v>
+      </c>
+      <c r="GQ9" s="2">
+        <v>88.260712407991591</v>
+      </c>
+      <c r="GR9" s="2">
+        <v>90.11610542362645</v>
+      </c>
+      <c r="GS9" s="2">
+        <v>79.561489111589651</v>
+      </c>
+      <c r="GT9" s="2">
+        <v>70.157073588111473</v>
+      </c>
+      <c r="GU9" s="2">
+        <v>60.015515916359746</v>
+      </c>
+      <c r="GV9" s="2">
+        <v>65.860409135900269</v>
+      </c>
+      <c r="GW9" s="2">
+        <v>84.060237444404848</v>
+      </c>
+      <c r="GX9" s="2">
+        <v>77.556409227177284</v>
+      </c>
+      <c r="GY9" s="2">
+        <v>776.33737355326718</v>
+      </c>
+      <c r="GZ9" s="2">
+        <v>729.51371295000615</v>
+      </c>
+      <c r="HA9" s="2">
+        <v>655.73569749216301</v>
+      </c>
+      <c r="HB9" s="2">
+        <v>522.68653082742719</v>
+      </c>
+      <c r="HC9" s="2">
+        <v>499.67744342094295</v>
+      </c>
+      <c r="HD9" s="2">
+        <v>485.22250911634166</v>
+      </c>
+      <c r="HE9" s="2">
+        <v>446.35836945133042</v>
+      </c>
+      <c r="HF9" s="2">
+        <v>553.82889772611395</v>
+      </c>
+      <c r="HG9" s="2">
+        <v>479.44344823596941</v>
+      </c>
+      <c r="HH9" s="2">
+        <v>483.75740688613263</v>
+      </c>
+      <c r="HI9" s="2">
+        <v>488.99128084859638</v>
+      </c>
+      <c r="HJ9" s="2">
+        <v>472.30291094014308</v>
+      </c>
+      <c r="HK9" s="2">
+        <v>371.12125191995193</v>
+      </c>
+      <c r="HL9" s="2">
+        <v>430.82527625232751</v>
+      </c>
+      <c r="HM9" s="2">
+        <v>374.06228180920459</v>
+      </c>
+      <c r="HN9" s="2">
+        <v>391.83015919444762</v>
+      </c>
+      <c r="HO9" s="2">
+        <v>312.95576299428444</v>
+      </c>
     </row>
     <row r="10" spans="1:227" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -5626,6 +6575,669 @@
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C10" s="2">
+        <v>140.98903488727586</v>
+      </c>
+      <c r="D10" s="2">
+        <v>131.42560474633413</v>
+      </c>
+      <c r="E10" s="2">
+        <v>133.04930648541767</v>
+      </c>
+      <c r="F10" s="2">
+        <v>113.06789310555482</v>
+      </c>
+      <c r="G10" s="2">
+        <v>119.60279079288317</v>
+      </c>
+      <c r="H10" s="2">
+        <v>145.32956495853</v>
+      </c>
+      <c r="I10" s="2">
+        <v>149.43777507452151</v>
+      </c>
+      <c r="J10" s="2">
+        <v>178.81559056881798</v>
+      </c>
+      <c r="K10" s="2">
+        <v>162.98494172558679</v>
+      </c>
+      <c r="L10" s="2">
+        <v>184.55321544552285</v>
+      </c>
+      <c r="M10" s="2">
+        <v>156.86031526174767</v>
+      </c>
+      <c r="N10" s="2">
+        <v>156.92018137346639</v>
+      </c>
+      <c r="O10" s="2">
+        <v>140.65314122575333</v>
+      </c>
+      <c r="P10" s="2">
+        <v>131.71465904231783</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>132.44825732091238</v>
+      </c>
+      <c r="R10" s="2">
+        <v>141.18127233114129</v>
+      </c>
+      <c r="S10" s="2">
+        <v>132.49820956563119</v>
+      </c>
+      <c r="T10" s="2">
+        <v>215.10150254333988</v>
+      </c>
+      <c r="U10" s="2">
+        <v>192.03197237722179</v>
+      </c>
+      <c r="V10" s="2">
+        <v>151.63371196185668</v>
+      </c>
+      <c r="W10" s="2">
+        <v>234.62775546817872</v>
+      </c>
+      <c r="X10" s="2">
+        <v>189.95480375497925</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>174.21122920260422</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>129.78841269454153</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>139.46137995237214</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>125.08304865735825</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>146.97121715683201</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>130.44247296538043</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>121.60038408665437</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>68.701527867441357</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>38.866779553209959</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>63.908032564077928</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>64.9653561483846</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>66.665410358715903</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>59.638110488390708</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>59.233449477351918</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>48.17317002628171</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>50.985718684499687</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>63.236489706665665</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>45.521068405246226</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>272.0816529903617</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>56.718295757300197</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>31.304950799842661</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>111.03873848305938</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>67.353648819056019</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>68.059980039611787</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>88.011075162156558</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>71.843762657259191</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>70.244168109457121</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>56.239236093380811</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>40.201845086991518</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>47.57282793323202</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>66.705162843040966</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>177.6361270595803</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>140.65961010194201</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>145.46604064964814</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>146.30230734697508</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>177.06576728499158</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>185.74980923370569</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>260.26816352033762</v>
+      </c>
+      <c r="BK10" s="2">
+        <v>300.0869533268833</v>
+      </c>
+      <c r="BL10" s="2">
+        <v>249.69194327275392</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>292.48226026686422</v>
+      </c>
+      <c r="BN10" s="2">
+        <v>147.30841247170477</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>105.61971595246551</v>
+      </c>
+      <c r="BP10" s="2">
+        <v>155.9874679951246</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>110.54574927953891</v>
+      </c>
+      <c r="BR10" s="2">
+        <v>113.78571472425911</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>91.054866024823099</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>104.41414736532018</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>110.36697281249542</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>129.12416630855373</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>90.970518637518182</v>
+      </c>
+      <c r="BX10" s="2">
+        <v>134.24617281636009</v>
+      </c>
+      <c r="BY10" s="2">
+        <v>115.72756524526977</v>
+      </c>
+      <c r="BZ10" s="2">
+        <v>264.84672699292531</v>
+      </c>
+      <c r="CA10" s="2">
+        <v>113.74703793056035</v>
+      </c>
+      <c r="CB10" s="2">
+        <v>98.458818145872485</v>
+      </c>
+      <c r="CC10" s="2">
+        <v>118.20461894377381</v>
+      </c>
+      <c r="CD10" s="2">
+        <v>131.78546715852846</v>
+      </c>
+      <c r="CE10" s="2">
+        <v>178.61274115119701</v>
+      </c>
+      <c r="CF10" s="2">
+        <v>196.43393162768243</v>
+      </c>
+      <c r="CG10" s="2">
+        <v>207.77715480518066</v>
+      </c>
+      <c r="CH10" s="2">
+        <v>212.8387974596985</v>
+      </c>
+      <c r="CI10" s="2">
+        <v>233.15447268151152</v>
+      </c>
+      <c r="CJ10" s="2">
+        <v>497.6261483074091</v>
+      </c>
+      <c r="CK10" s="2">
+        <v>473.33827857090745</v>
+      </c>
+      <c r="CL10" s="2">
+        <v>563.26067171757074</v>
+      </c>
+      <c r="CM10" s="2">
+        <v>383.55891719745222</v>
+      </c>
+      <c r="CN10" s="2">
+        <v>480.79487863430251</v>
+      </c>
+      <c r="CO10" s="2">
+        <v>645.74330548107332</v>
+      </c>
+      <c r="CP10" s="2">
+        <v>544.97971164637829</v>
+      </c>
+      <c r="CQ10" s="2">
+        <v>617.97587761468287</v>
+      </c>
+      <c r="CR10" s="2">
+        <v>621.69912962649983</v>
+      </c>
+      <c r="CS10" s="2">
+        <v>567.25405464611981</v>
+      </c>
+      <c r="CT10" s="2">
+        <v>497.57786537623656</v>
+      </c>
+      <c r="CU10" s="2">
+        <v>462.6052703416359</v>
+      </c>
+      <c r="CV10" s="2">
+        <v>577.38701725554643</v>
+      </c>
+      <c r="CW10" s="2">
+        <v>451.17595829746438</v>
+      </c>
+      <c r="CX10" s="2">
+        <v>442.8684673150068</v>
+      </c>
+      <c r="CY10" s="2">
+        <v>545.66926586210241</v>
+      </c>
+      <c r="CZ10" s="2">
+        <v>402.46938634091288</v>
+      </c>
+      <c r="DA10" s="2">
+        <v>421.93816246499767</v>
+      </c>
+      <c r="DB10" s="2">
+        <v>368.9307940696288</v>
+      </c>
+      <c r="DC10" s="2">
+        <v>346.6065883350015</v>
+      </c>
+      <c r="DD10" s="2">
+        <v>255.32767944860851</v>
+      </c>
+      <c r="DE10" s="2">
+        <v>278.18696048510139</v>
+      </c>
+      <c r="DF10" s="2">
+        <v>423.1956227402498</v>
+      </c>
+      <c r="DG10" s="2">
+        <v>411.69578033956503</v>
+      </c>
+      <c r="DH10" s="2">
+        <v>543.27182767163583</v>
+      </c>
+      <c r="DI10" s="2">
+        <v>435.60184669451462</v>
+      </c>
+      <c r="DJ10" s="2">
+        <v>554.80090524554237</v>
+      </c>
+      <c r="DK10" s="2">
+        <v>436.02596581381295</v>
+      </c>
+      <c r="DL10" s="2">
+        <v>388.69520235490012</v>
+      </c>
+      <c r="DM10" s="2">
+        <v>323.34831119808825</v>
+      </c>
+      <c r="DN10" s="2">
+        <v>297.9842652338462</v>
+      </c>
+      <c r="DO10" s="2">
+        <v>307.42459741386307</v>
+      </c>
+      <c r="DP10" s="2">
+        <v>340.86228114585276</v>
+      </c>
+      <c r="DQ10" s="2">
+        <v>335.15988151429411</v>
+      </c>
+      <c r="DR10" s="2">
+        <v>57.948330503525298</v>
+      </c>
+      <c r="DS10" s="2">
+        <v>34.682561760004717</v>
+      </c>
+      <c r="DT10" s="2">
+        <v>35.318113033752219</v>
+      </c>
+      <c r="DU10" s="2">
+        <v>14.338432484130607</v>
+      </c>
+      <c r="DV10" s="2">
+        <v>25.72664589101559</v>
+      </c>
+      <c r="DW10" s="2">
+        <v>22.196875072035901</v>
+      </c>
+      <c r="DX10" s="2">
+        <v>26.958431034906475</v>
+      </c>
+      <c r="DY10" s="2">
+        <v>32.403721136498788</v>
+      </c>
+      <c r="DZ10" s="2">
+        <v>44.146168893328344</v>
+      </c>
+      <c r="EA10" s="2">
+        <v>49.271225871667369</v>
+      </c>
+      <c r="EB10" s="2">
+        <v>33.422611003268059</v>
+      </c>
+      <c r="EC10" s="2">
+        <v>58.776328660458951</v>
+      </c>
+      <c r="ED10" s="2">
+        <v>26.686239054188086</v>
+      </c>
+      <c r="EE10" s="2">
+        <v>36.094287774613868</v>
+      </c>
+      <c r="EF10" s="2">
+        <v>35.526038708689356</v>
+      </c>
+      <c r="EG10" s="2">
+        <v>35.188339089501824</v>
+      </c>
+      <c r="EH10" s="2">
+        <v>26.949316629148729</v>
+      </c>
+      <c r="EI10" s="2">
+        <v>0.41376232253289252</v>
+      </c>
+      <c r="EJ10" s="2">
+        <v>0.13808890479322372</v>
+      </c>
+      <c r="EK10" s="2">
+        <v>0.1621425002060968</v>
+      </c>
+      <c r="EL10" s="2">
+        <v>6.2181320731252328E-2</v>
+      </c>
+      <c r="EM10" s="2">
+        <v>9.0829505288403001E-2</v>
+      </c>
+      <c r="EN10" s="2">
+        <v>6.5407180862012776E-2</v>
+      </c>
+      <c r="EO10" s="2">
+        <v>4.9873704434616341E-2</v>
+      </c>
+      <c r="EP10" s="2">
+        <v>5.7021051866195702E-2</v>
+      </c>
+      <c r="EQ10" s="2">
+        <v>38.165186243199678</v>
+      </c>
+      <c r="ER10" s="2">
+        <v>15.233643623804765</v>
+      </c>
+      <c r="ES10" s="2">
+        <v>11.911577155308713</v>
+      </c>
+      <c r="ET10" s="2">
+        <v>11.146296252949588</v>
+      </c>
+      <c r="EU10" s="2">
+        <v>1.2915977507009685E-2</v>
+      </c>
+      <c r="EV10" s="2">
+        <v>0</v>
+      </c>
+      <c r="EW10" s="2">
+        <v>0</v>
+      </c>
+      <c r="EX10" s="2">
+        <v>1.2672302582723886E-2</v>
+      </c>
+      <c r="EY10" s="2">
+        <v>0</v>
+      </c>
+      <c r="EZ10" s="2">
+        <v>14.640008193672037</v>
+      </c>
+      <c r="FA10" s="2">
+        <v>13.837226298710791</v>
+      </c>
+      <c r="FB10" s="2">
+        <v>14.262598648277635</v>
+      </c>
+      <c r="FC10" s="2">
+        <v>14.507634051573525</v>
+      </c>
+      <c r="FD10" s="2">
+        <v>16.670326442333042</v>
+      </c>
+      <c r="FE10" s="2">
+        <v>12.695535859120206</v>
+      </c>
+      <c r="FF10" s="2">
+        <v>14.487947670846735</v>
+      </c>
+      <c r="FG10" s="2">
+        <v>12.548996453645151</v>
+      </c>
+      <c r="FH10" s="2">
+        <v>11.103776323981238</v>
+      </c>
+      <c r="FI10" s="2">
+        <v>11.758241568860837</v>
+      </c>
+      <c r="FJ10" s="2">
+        <v>17.045815979011934</v>
+      </c>
+      <c r="FK10" s="2">
+        <v>26.459871599093507</v>
+      </c>
+      <c r="FL10" s="2">
+        <v>11.791441690099136</v>
+      </c>
+      <c r="FM10" s="2">
+        <v>12.38911484075888</v>
+      </c>
+      <c r="FN10" s="2">
+        <v>13.508126290175765</v>
+      </c>
+      <c r="FO10" s="2">
+        <v>14.237734273589719</v>
+      </c>
+      <c r="FP10" s="2">
+        <v>14.893011434990392</v>
+      </c>
+      <c r="FQ10" s="2">
+        <v>74.400456078264739</v>
+      </c>
+      <c r="FR10" s="2">
+        <v>64.39773818414595</v>
+      </c>
+      <c r="FS10" s="2">
+        <v>60.903680729518733</v>
+      </c>
+      <c r="FT10" s="2">
+        <v>65.743706851892966</v>
+      </c>
+      <c r="FU10" s="2">
+        <v>63.979442152030984</v>
+      </c>
+      <c r="FV10" s="2">
+        <v>62.050960845101564</v>
+      </c>
+      <c r="FW10" s="2">
+        <v>81.738938309143421</v>
+      </c>
+      <c r="FX10" s="2">
+        <v>87.456668515126267</v>
+      </c>
+      <c r="FY10" s="2">
+        <v>85.8835739716489</v>
+      </c>
+      <c r="FZ10" s="2">
+        <v>80.473195724754845</v>
+      </c>
+      <c r="GA10" s="2">
+        <v>102.66144742258311</v>
+      </c>
+      <c r="GB10" s="2">
+        <v>102.70227767148062</v>
+      </c>
+      <c r="GC10" s="2">
+        <v>90.821615754299216</v>
+      </c>
+      <c r="GD10" s="2">
+        <v>99.29751729965335</v>
+      </c>
+      <c r="GE10" s="2">
+        <v>97.52746170074694</v>
+      </c>
+      <c r="GF10" s="2">
+        <v>67.389671312177256</v>
+      </c>
+      <c r="GG10" s="2">
+        <v>78.286802429888894</v>
+      </c>
+      <c r="GH10" s="2">
+        <v>292.91673528567861</v>
+      </c>
+      <c r="GI10" s="2">
+        <v>278.71733422704409</v>
+      </c>
+      <c r="GJ10" s="2">
+        <v>281.65301408585003</v>
+      </c>
+      <c r="GK10" s="2">
+        <v>242.5016602796936</v>
+      </c>
+      <c r="GL10" s="2">
+        <v>269.92298277436504</v>
+      </c>
+      <c r="GM10" s="2">
+        <v>298.62662506910004</v>
+      </c>
+      <c r="GN10" s="2">
+        <v>289.23411367638187</v>
+      </c>
+      <c r="GO10" s="2">
+        <v>334.15542185708227</v>
+      </c>
+      <c r="GP10" s="2">
+        <v>307.00375738145442</v>
+      </c>
+      <c r="GQ10" s="2">
+        <v>386.5708793375394</v>
+      </c>
+      <c r="GR10" s="2">
+        <v>327.33112998423178</v>
+      </c>
+      <c r="GS10" s="2">
+        <v>327.46397524259288</v>
+      </c>
+      <c r="GT10" s="2">
+        <v>321.46872612824848</v>
+      </c>
+      <c r="GU10" s="2">
+        <v>304.82219625894021</v>
+      </c>
+      <c r="GV10" s="2">
+        <v>291.35101646691737</v>
+      </c>
+      <c r="GW10" s="2">
+        <v>318.15517100746519</v>
+      </c>
+      <c r="GX10" s="2">
+        <v>292.03013187799178</v>
+      </c>
+      <c r="GY10" s="2">
+        <v>138.03198760594185</v>
+      </c>
+      <c r="GZ10" s="2">
+        <v>147.01329069668733</v>
+      </c>
+      <c r="HA10" s="2">
+        <v>145.02368590461262</v>
+      </c>
+      <c r="HB10" s="2">
+        <v>127.00796662372612</v>
+      </c>
+      <c r="HC10" s="2">
+        <v>124.8140362579926</v>
+      </c>
+      <c r="HD10" s="2">
+        <v>119.66358609829373</v>
+      </c>
+      <c r="HE10" s="2">
+        <v>132.30494956437545</v>
+      </c>
+      <c r="HF10" s="2">
+        <v>170.60662082540864</v>
+      </c>
+      <c r="HG10" s="2">
+        <v>230.58008997023242</v>
+      </c>
+      <c r="HH10" s="2">
+        <v>172.67531560550293</v>
+      </c>
+      <c r="HI10" s="2">
+        <v>168.21041399268373</v>
+      </c>
+      <c r="HJ10" s="2">
+        <v>184.35776085912775</v>
+      </c>
+      <c r="HK10" s="2">
+        <v>178.69510050530909</v>
+      </c>
+      <c r="HL10" s="2">
+        <v>182.62023672531467</v>
+      </c>
+      <c r="HM10" s="2">
+        <v>163.36519625787719</v>
+      </c>
+      <c r="HN10" s="2">
+        <v>171.52157403655471</v>
+      </c>
+      <c r="HO10" s="2">
+        <v>152.11868202748462</v>
+      </c>
     </row>
     <row r="11" spans="1:227" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -5642,12 +7254,6 @@
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E12">
-        <v>2016</v>
-      </c>
-      <c r="F12">
-        <v>2000</v>
-      </c>
     </row>
     <row r="13" spans="1:227" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -5656,124 +7262,72 @@
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:227" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="E14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:227" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="E15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:227" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="E16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E26" s="4"/>
